--- a/reports/organizational_security_loopholes.xlsx
+++ b/reports/organizational_security_loopholes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Security Gaps &amp; Controls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Security Gaps &amp; Controls" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Educate employees on risks of device sharing and best practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,41 +473,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Provide guidance on secure device sharing practices.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats.</t>
+          <t>Potential unauthorized access risks due to login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior.</t>
+          <t>Implement stronger authentication policies and enhance monitoring mechanisms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L, H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems.</t>
+          <t>1. Review and strengthen existing authentication mechanisms. 2. Enhance monitoring capabilities to detect and respond to suspicious activities promptly.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Educate employees on risks of device sharing and best practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,173 +517,173 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Provide guidance on secure device sharing practices.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats.</t>
+          <t>Potential unauthorized access risks due to Login Attempts exceeding threshold.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior.</t>
+          <t>Implement stronger authentication policies and enhance monitoring.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L, H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems.</t>
+          <t>Initiate review and update of authentication policies. Enhance monitoring of user login activities.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Long resolution times observed, indicating inefficiencies in incident management., Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Implement a more efficient incident response process and training., Educate employees on risks of device sharing and best practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L, M, L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Revise incident management process to reduce response time, provide additional training., Provide guidance on secure device sharing practices.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>No organizational security gaps identified.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No controls needed.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No criticality assigned.</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No steps identified.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High login attempts detected, indicating potential brute force risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Frequent device sharing observed, which may violate security policies.</t>
+          <t>Potential unauthorized access risks due to excessive login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strengthen authentication policies, implement multi-factor authentication., Enhance monitoring and alerts for suspicious access behavior., Enforce stricter device management and access control policies.</t>
+          <t>Implement stronger authentication policies and enhance monitoring.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>H, H, M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Implement CAPTCHA, enforce multi-factor authentication (MFA)., Increase monitoring on login activities, implement anomaly detection systems., Implement policies restricting device sharing, enforce encryption on shared devices.</t>
+          <t>1. Conduct a thorough review of access logs to identify any unauthorized access attempts. 2. Implement multi-factor authentication for all users to mitigate the risk of unauthorized access. 3. Enhance monitoring systems to promptly detect and respond to suspicious activities.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>No organizational security gaps identified.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No controls needed.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No criticality assigned.</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No steps identified.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suspicious access flags raised, indicating possible compromised accounts or insider threats., Low security awareness based on mock test performance., Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enhance monitoring and alerts for suspicious access behavior., Implement company-wide refresher training on security topics such as phishing and secure login., Educate employees on risks of device sharing and best practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>H, H, L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Increase monitoring on login activities, implement anomaly detection systems., Increase frequency of phishing simulations, provide more in-depth security awareness courses., Provide guidance on secure device sharing practices.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>Unauthorized access risks due to excessive login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior., Educate employees on risks of device sharing and best practices.</t>
+          <t>Implement stronger authentication policies and enhance monitoring.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L, H, L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems., Provide guidance on secure device sharing practices.</t>
+          <t>1. Review and update authentication policies. 2. Enhance monitoring tools to detect suspicious activities.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,183 +715,183 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>High login attempts detected, indicating potential brute force risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Frequent device sharing observed, which may violate security policies.</t>
+          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 and Suspicious Access Flags &gt; 0.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strengthen authentication policies, implement multi-factor authentication., Enhance monitoring and alerts for suspicious access behavior., Enforce stricter device management and access control policies.</t>
+          <t>Implement stronger authentication policies and enhance monitoring.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>H, H, M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Implement CAPTCHA, enforce multi-factor authentication (MFA)., Increase monitoring on login activities, implement anomaly detection systems., Implement policies restricting device sharing, enforce encryption on shared devices.</t>
+          <t>1. Conduct a review of current authentication mechanisms and consider implementing multi-factor authentication. 2. Enhance monitoring for suspicious access attempts and set up alerts for unusual login patterns.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Suspicious access flags raised, indicating possible compromised accounts or insider threats.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Enhance monitoring and alerts for suspicious access behavior.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Increase monitoring on login activities, implement anomaly detection systems.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No organizational security gaps identified.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No controls needed.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No criticality assigned.</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No steps identified.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior., Educate employees on risks of device sharing and best practices.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L, H, L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems., Provide guidance on secure device sharing practices.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L, H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No organizational security gaps identified.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No controls needed.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No criticality assigned.</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No steps identified.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>High login attempts detected, indicating potential brute force risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Low security awareness based on mock test performance., Frequent device sharing observed, which may violate security policies.</t>
+          <t>Potential unauthorized access risks due to multiple login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strengthen authentication policies, implement multi-factor authentication., Enhance monitoring and alerts for suspicious access behavior., Implement company-wide refresher training on security topics such as phishing and secure login., Enforce stricter device management and access control policies.</t>
+          <t>Implement stronger authentication policies, enhance monitoring for suspicious activities.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>H, H, H, M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Implement CAPTCHA, enforce multi-factor authentication (MFA)., Increase monitoring on login activities, implement anomaly detection systems., Increase frequency of phishing simulations, provide more in-depth security awareness courses., Implement policies restricting device sharing, enforce encryption on shared devices.</t>
+          <t>1. Conduct a thorough review of access logs to identify any unauthorized access. 2. Implement multi-factor authentication for all sensitive systems. 3. Enhance employee training on recognizing and reporting suspicious activities.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Moderate login attempts detected, indicating potential unauthorized access risks., Suspicious access flags raised, indicating possible compromised accounts or insider threats., Low levels of device sharing observed, which could lead to minor security risks.</t>
+          <t>There are potential unauthorized access risks due to 5 login attempts and 2 suspicious access flags.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Monitor login activities and educate users on secure login practices., Enhance monitoring and alerts for suspicious access behavior., Educate employees on risks of device sharing and best practices.</t>
+          <t>Implement stronger authentication policies and monitoring.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L, H, L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Increase monitoring and provide secure login reminders., Increase monitoring on login activities, implement anomaly detection systems., Provide guidance on secure device sharing practices.</t>
+          <t>1. Conduct a review of current authentication mechanisms and consider implementing multi-factor authentication. 2. Increase monitoring of login attempts and unusual access patterns for timely detection and response.</t>
         </is>
       </c>
     </row>

--- a/reports/organizational_security_loopholes.xlsx
+++ b/reports/organizational_security_loopholes.xlsx
@@ -480,22 +480,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to login attempts and suspicious access flags.</t>
+          <t>Unauthorized access risks due to login attempts exceeding threshold and presence of suspicious access flags.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring mechanisms.</t>
+          <t>Implement stronger authentication policies, enhance monitoring capabilities.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1. Review and strengthen existing authentication mechanisms. 2. Enhance monitoring capabilities to detect and respond to suspicious activities promptly.</t>
+          <t>1. Conduct a thorough review of current authentication mechanisms. 2. Implement multi-factor authentication for sensitive accounts. 3. Enhance monitoring for suspicious activities.</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts exceeding threshold.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Initiate review and update of authentication policies. Enhance monitoring of user login activities.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to excessive login attempts and suspicious access flags.</t>
+          <t>Potential unauthorized access risks due to Login Attempts exceeding the threshold.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring.</t>
+          <t>Implement stronger authentication policies and enhance monitoring mechanisms.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1. Conduct a thorough review of access logs to identify any unauthorized access attempts. 2. Implement multi-factor authentication for all users to mitigate the risk of unauthorized access. 3. Enhance monitoring systems to promptly detect and respond to suspicious activities.</t>
+          <t>Initiate implementation of two-factor authentication, conduct security awareness training on phishing, and enhance real-time monitoring of login activities.</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unauthorized access risks due to excessive login attempts and suspicious access flags.</t>
+          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 or Suspicious Access Flags &gt; 0.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring.</t>
+          <t>Implement stronger authentication policies and increase monitoring.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1. Review and update authentication policies. 2. Enhance monitoring tools to detect suspicious activities.</t>
+          <t>1. Review current authentication policies and update to include multi-factor authentication. 2. Enhance monitoring systems to flag and investigate suspicious access attempts promptly.</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 and Suspicious Access Flags &gt; 0.</t>
+          <t>Potential unauthorized access risks due to login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring.</t>
+          <t>Implement stronger authentication policies and monitoring.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,7 +737,9 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1. Conduct a review of current authentication mechanisms and consider implementing multi-factor authentication. 2. Enhance monitoring for suspicious access attempts and set up alerts for unusual login patterns.</t>
+          <t>1. Conduct a thorough review of access logs.
+2. Enhance authentication mechanisms such as multi-factor authentication.
+3. Implement real-time monitoring for suspicious activities.</t>
         </is>
       </c>
     </row>
@@ -788,44 +790,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>No significant security gaps identified based on employee data</t>
+          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 or Suspicious Access Flags &gt; 0.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Implement stronger authentication policies and monitoring.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1. Review and update authentication policies to enforce stronger password requirements. 2. Implement multi-factor authentication for all user accounts. 3. Set up real-time monitoring for suspicious activities and conduct regular security audits.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>No significant security gaps identified based on employee data</t>
+          <t>Potential unauthorized access risks due to Login Attempts and Suspicious Access Flags.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Stronger authentication policies and monitoring.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Implement multi-factor authentication, review access logs regularly for suspicious activity.</t>
         </is>
       </c>
     </row>
@@ -854,12 +856,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to multiple login attempts and suspicious access flags.</t>
+          <t>Identified potential unauthorized access risks due to Login Attempts and Suspicious Access Flags.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies, enhance monitoring for suspicious activities.</t>
+          <t>Implement stronger authentication policies and monitoring procedures.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,29 +871,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1. Conduct a thorough review of access logs to identify any unauthorized access. 2. Implement multi-factor authentication for all sensitive systems. 3. Enhance employee training on recognizing and reporting suspicious activities.</t>
+          <t>1. Conduct a thorough review of current authentication policies and procedures. 2. Implement multi-factor authentication for sensitive systems. 3. Enhance monitoring capabilities to detect and respond to suspicious activities.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>There are potential unauthorized access risks due to 5 login attempts and 2 suspicious access flags.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and monitoring.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1. Conduct a review of current authentication mechanisms and consider implementing multi-factor authentication. 2. Increase monitoring of login attempts and unusual access patterns for timely detection and response.</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/reports/organizational_security_loopholes.xlsx
+++ b/reports/organizational_security_loopholes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Security Gaps &amp; Controls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Security Gaps &amp; Controls" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,22 +480,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unauthorized access risks due to login attempts exceeding threshold and presence of suspicious access flags.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies, enhance monitoring capabilities.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1. Conduct a thorough review of current authentication mechanisms. 2. Implement multi-factor authentication for sensitive accounts. 3. Enhance monitoring for suspicious activities.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No significant security gaps identified based on employee data</t>
+          <t>No significant security gaps identified based on employee data.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,22 +590,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts exceeding the threshold.</t>
+          <t>Unauthorized access risks due to multiple login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and enhance monitoring mechanisms.</t>
+          <t>Implement stronger authentication policies and enhance monitoring.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Initiate implementation of two-factor authentication, conduct security awareness training on phishing, and enhance real-time monitoring of login activities.</t>
+          <t>1. Review and update authentication policies. 2. Implement multi-factor authentication. 3. Enhance real-time monitoring for suspicious activities.</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 or Suspicious Access Flags &gt; 0.</t>
+          <t>Unauthorized access risks due to Login Attempts and Suspicious Access Flags exceeding thresholds.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and increase monitoring.</t>
+          <t>Implement stronger authentication policies, enhance monitoring for suspicious access.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1. Review current authentication policies and update to include multi-factor authentication. 2. Enhance monitoring systems to flag and investigate suspicious access attempts promptly.</t>
+          <t>1. Conduct security training on recognizing potential unauthorized access. 2. Implement multi-factor authentication for all employees.</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to login attempts and suspicious access flags.</t>
+          <t>Potential unauthorized access risks due to high login attempts and suspicious access flags.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and monitoring.</t>
+          <t>Stronger authentication policies and monitoring</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,9 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1. Conduct a thorough review of access logs.
-2. Enhance authentication mechanisms such as multi-factor authentication.
-3. Implement real-time monitoring for suspicious activities.</t>
+          <t>Implement multi-factor authentication, conduct regular security audits, and monitor user access patterns for anomalies.</t>
         </is>
       </c>
     </row>
@@ -790,34 +788,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts &gt; 5 or Suspicious Access Flags &gt; 0.</t>
+          <t>No significant security gaps identified based on employee data</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and monitoring.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1. Review and update authentication policies to enforce stronger password requirements. 2. Implement multi-factor authentication for all user accounts. 3. Set up real-time monitoring for suspicious activities and conduct regular security audits.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Potential unauthorized access risks due to Login Attempts and Suspicious Access Flags.</t>
+          <t>Potential unauthorized access risks due to 4 login attempts.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stronger authentication policies and monitoring.</t>
+          <t>Implement stronger authentication policies and monitoring.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -827,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Implement multi-factor authentication, review access logs regularly for suspicious activity.</t>
+          <t>1. Increase login attempt threshold for account lockout. 2. Implement multi-factor authentication for sensitive accounts.</t>
         </is>
       </c>
     </row>
@@ -856,12 +854,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identified potential unauthorized access risks due to Login Attempts and Suspicious Access Flags.</t>
+          <t>Unauthorized access risks due to Login Attempts and Suspicious Access Flags exceeding thresholds.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Implement stronger authentication policies and monitoring procedures.</t>
+          <t>Implement stronger authentication policies and increase monitoring for unauthorized access.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -871,29 +869,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1. Conduct a thorough review of current authentication policies and procedures. 2. Implement multi-factor authentication for sensitive systems. 3. Enhance monitoring capabilities to detect and respond to suspicious activities.</t>
+          <t>1. Review and update authentication policies. 2. Enhance monitoring capabilities to detect and respond to unauthorized access attempts.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>No significant security gaps identified based on employee data</t>
+          <t>Unauthorized access risks due to Login Attempts and Suspicious Access Flags.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Implement stronger authentication policies and monitoring mechanisms.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1. Review and enhance the current authentication mechanisms. 2. Implement real-time monitoring for suspicious activities. 3. Conduct security awareness training for employees.</t>
         </is>
       </c>
     </row>
